--- a/recursion.xlsx
+++ b/recursion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\DSA-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A715EBE-51A6-4D56-B590-31D3439B2D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D75858-300A-48F7-BFFC-6E942570D115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sortedArray" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="braceket" sheetId="3" r:id="rId3"/>
     <sheet name="keyPad" sheetId="4" r:id="rId4"/>
     <sheet name="permutation" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="N-Que" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,9 +29,477 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t>#include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;bits/stdc++.h&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>using</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> std;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF19A38C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;string&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> v;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> find_Permutations(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> *inp, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(inp[i]==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF19A38C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'\0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> str(inp);</t>
+    </r>
+  </si>
+  <si>
+    <t>v.push_back(str);</t>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> j=i; inp[j]!=0; j++){</t>
+    </r>
+  </si>
+  <si>
+    <t>swap(inp[i],inp[j]);</t>
+  </si>
+  <si>
+    <t>find_Permutations(inp,i+1);</t>
+  </si>
+  <si>
+    <r>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF19A38C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;string&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> findSortedPermutations(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> s){</t>
+    </r>
+  </si>
+  <si>
+    <t>v.clear();</t>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> n=s.length();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> inp[n+1];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i=0; i&lt;n; i++){</t>
+    </r>
+  </si>
+  <si>
+    <t>inp[i]=s[i];</t>
+  </si>
+  <si>
+    <r>
+      <t>inp[n]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF19A38C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'\0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>find_Permutations(inp,0);</t>
+  </si>
+  <si>
+    <r>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF19A38C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;string&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> st;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i=0; i&lt;v.size(); i++){</t>
+    </r>
+  </si>
+  <si>
+    <t>st.insert(v[i]);</t>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB4690E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> x:st){</t>
+    </r>
+  </si>
+  <si>
+    <t>v.push_back(x);</t>
+  </si>
+  <si>
+    <r>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2D2F31"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> v;</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,16 +507,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2D2F31"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A6F73"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFB4690E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF19A38C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -56,12 +554,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,6 +1272,275 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2457DCA-F9E6-51A7-31C4-D4F0C4AEA142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="180975"/>
+          <a:ext cx="4867275" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E8C45E-EFE8-CEB1-C565-A06D5A210E90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="4267200"/>
+          <a:ext cx="5505450" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0196809F-33E7-529B-85E7-441F2BFE81EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="4000500"/>
+          <a:ext cx="6057900" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E050D445-6DCB-E1B6-C26B-1D2B9E5712DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7429500"/>
+          <a:ext cx="4552950" cy="3362325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3315C09-7BC4-2723-0B43-4180A3E7F4FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="7419975"/>
+          <a:ext cx="3362325" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79533094-100C-9B0D-17F7-AB2192531244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="7410450"/>
+          <a:ext cx="4714875" cy="3762375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -956,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1001632E-AA4E-45E1-A0A6-97F54FEF4B2C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -986,7 +1851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22B3A4D-7922-4237-9EC5-C49844D5827B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -999,14 +1864,380 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA96CC39-426C-4CBD-BBF0-69D3B2E07B9C}">
-  <dimension ref="A1"/>
+  <dimension ref="B21:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1016,10 +2247,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF7D77D-29DC-47B6-BAFE-858B3014F99B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/recursion.xlsx
+++ b/recursion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\DSA-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D75858-300A-48F7-BFFC-6E942570D115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C37619F-BF73-43FA-9A75-AF4B203D1F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
   <si>
     <t>}</t>
   </si>
@@ -492,6 +492,7343 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> v;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>swap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'#'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'#'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>permutation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>per</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>charAt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>charAt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>swap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>permutation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>swap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s_char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>per</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'abc'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>permutation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>per</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isValid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">){ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>curr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>charAt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'{'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>curr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>curr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'}'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>']'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>curr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>curr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isValid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isValid2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>curr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'{'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>curr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>curr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'}'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>']'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>curr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>curr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'{}a[(c)r]'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'{'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'}'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>']'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>')'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isValid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,[]))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>isValid2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>generate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// console.log(output,i,open,close)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>par</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>generate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>generate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>generate2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>generate2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>generate2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>par</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>generate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>par</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>par</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>generate2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>printBoard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`---------printing---------`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>canPlace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//check col</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// console.log(r,c)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>row</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>col</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ans</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>printBoard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>canPlace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>solveAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// console.log(r,ans)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>solveAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fill</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>printBoard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>// console.log(solve(0))</t>
+  </si>
+  <si>
+    <r>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>solveAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
     </r>
   </si>
 </sst>
@@ -499,7 +7836,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +7868,74 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +7945,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +8047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -648,7 +8057,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -658,6 +8067,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1819,14 +9247,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1001632E-AA4E-45E1-A0A6-97F54FEF4B2C}">
-  <dimension ref="A1"/>
+  <dimension ref="H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1834,14 +9268,821 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE86A91-CE37-459A-AF82-F19E5CCD7E8D}">
-  <dimension ref="A1"/>
+  <dimension ref="A41:H109"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1851,7 +10092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22B3A4D-7922-4237-9EC5-C49844D5827B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -1864,16 +10105,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA96CC39-426C-4CBD-BBF0-69D3B2E07B9C}">
-  <dimension ref="B21:G58"/>
+  <dimension ref="B21:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1882,8 +10123,15 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -1892,8 +10140,15 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>3</v>
       </c>
@@ -1902,16 +10157,30 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
@@ -1920,8 +10189,15 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
@@ -1930,8 +10206,15 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
@@ -1940,8 +10223,13 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="14"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
@@ -1950,8 +10238,15 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
@@ -1960,8 +10255,15 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>0</v>
       </c>
@@ -1970,8 +10272,15 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>9</v>
       </c>
@@ -1980,8 +10289,15 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>10</v>
       </c>
@@ -1990,8 +10306,13 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="14"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>11</v>
       </c>
@@ -2000,8 +10321,15 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>10</v>
       </c>
@@ -2010,8 +10338,15 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>0</v>
       </c>
@@ -2020,16 +10355,28 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="14"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>0</v>
       </c>
@@ -2038,16 +10385,30 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>12</v>
       </c>
@@ -2056,8 +10417,13 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="14"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>13</v>
       </c>
@@ -2066,8 +10432,15 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>14</v>
       </c>
@@ -2076,8 +10449,15 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I42" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>15</v>
       </c>
@@ -2086,8 +10466,15 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>16</v>
       </c>
@@ -2096,8 +10483,13 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I44" s="14"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>17</v>
       </c>
@@ -2106,8 +10498,15 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>0</v>
       </c>
@@ -2116,8 +10515,15 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I46" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>18</v>
       </c>
@@ -2126,8 +10532,15 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I47" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>19</v>
       </c>
@@ -2136,6 +10549,13 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
+      <c r="I48" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
@@ -2245,14 +10665,889 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF7D77D-29DC-47B6-BAFE-858B3014F99B}">
-  <dimension ref="A1"/>
+  <dimension ref="B64:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="14"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="14"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="14"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="14"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="14"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="14"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="14"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="14"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="14"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="14"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="14"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="14"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="14"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
